--- a/results/summary_node_classification_GIN_sdrf.csv.xlsx
+++ b/results/summary_node_classification_GIN_sdrf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,9 +528,21 @@
         <v>0.0041089937502859</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2455131578947368</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0039331489502458</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/summary_node_classification_GIN_sdrf.csv.xlsx
+++ b/results/summary_node_classification_GIN_sdrf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,9 +540,45 @@
         <v>0.0039331489502458</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2444407894736842</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0047181419986757</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2477171052631579</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0033938419363079</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2426118421052631</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0046561792484724</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A2:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/summary_node_classification_GIN_sdrf.csv.xlsx
+++ b/results/summary_node_classification_GIN_sdrf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,9 +576,91 @@
         <v>0.0046561792484724</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>pubmed</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.769566430020284</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0222291228291711</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7663336713995943</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0232132545901185</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7864705882352943</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.018921826158862</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>squirrel</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3790297790585974</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0076144829309704</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3741210374639769</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0098389624249025</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3788952929875119</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0067187162185604</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/summary_node_classification_GIN_sdrf.csv.xlsx
+++ b/results/summary_node_classification_GIN_sdrf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,50 +617,74 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7648580121703855</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0263235533453602</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>squirrel</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>0.3790297790585974</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" t="n">
         <v>0.0076144829309704</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3741210374639769</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0098389624249025</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3741210374639769</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0098389624249025</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C16" t="n">
         <v>0.3788952929875119</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>0.0067187162185604</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.365609990393852</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0098865884658009</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/summary_node_classification_GIN_sdrf.csv.xlsx
+++ b/results/summary_node_classification_GIN_sdrf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,62 +629,134 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7776622718052738</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0195814819679261</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7752865111561867</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0230936145710033</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7927028397565924</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.015994821868882</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>squirrel</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C17" t="n">
         <v>0.3790297790585974</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D17" t="n">
         <v>0.0076144829309704</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n">
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>0.3741210374639769</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>0.0098389624249025</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n">
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C19" t="n">
         <v>0.3788952929875119</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D19" t="n">
         <v>0.0067187162185604</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n">
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C20" t="n">
         <v>0.365609990393852</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D20" t="n">
         <v>0.0098865884658009</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3720172910662824</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0087032274958713</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3719500480307396</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.008880279789043301</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.369519692603266</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0098013615136629</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/summary_node_classification_GIN_sdrf.csv.xlsx
+++ b/results/summary_node_classification_GIN_sdrf.csv.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,98 +665,122 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7779918864097363</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0195520744063723</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>squirrel</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C18" t="n">
         <v>0.3790297790585974</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D18" t="n">
         <v>0.0076144829309704</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3741210374639769</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.0098389624249025</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3788952929875119</v>
+        <v>0.3741210374639769</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0067187162185604</v>
+        <v>0.0098389624249025</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C20" t="n">
-        <v>0.365609990393852</v>
+        <v>0.3788952929875119</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0098865884658009</v>
+        <v>0.0067187162185604</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3720172910662824</v>
+        <v>0.365609990393852</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0087032274958713</v>
+        <v>0.0098865884658009</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3719500480307396</v>
+        <v>0.3720172910662824</v>
       </c>
       <c r="D22" t="n">
-        <v>0.008880279789043301</v>
+        <v>0.0087032274958713</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3719500480307396</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.008880279789043301</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C24" t="n">
         <v>0.369519692603266</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D24" t="n">
         <v>0.0098013615136629</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3679538904899136</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0091754722966862</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
